--- a/wms/src/main/webapp/resources/billForm/보관임양식.xlsx
+++ b/wms/src/main/webapp/resources/billForm/보관임양식.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyw36\Desktop\창고\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA2AC9-2667-4204-B4CE-8B3FD75DC834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A413F80-1186-47A3-8BE1-CB8EDF6B4A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4665" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="대전1호창고" sheetId="6" r:id="rId1"/>
+    <sheet name="보관비" sheetId="6" r:id="rId1"/>
+    <sheet name="부대비" sheetId="17" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">대전1호창고!$A$1:$S$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">보관비!$A$1:$S$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">부대비!$A$1:$R$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+  <si>
+    <t>지도서</t>
+  </si>
+  <si>
+    <t>번 호</t>
+  </si>
   <si>
     <t>년산</t>
   </si>
@@ -37,16 +41,28 @@
     <t>보관일수</t>
   </si>
   <si>
+    <t>이월량</t>
+  </si>
+  <si>
     <t>입고량</t>
   </si>
   <si>
     <t>출고량</t>
   </si>
   <si>
+    <t>금일잔량</t>
+  </si>
+  <si>
     <t>적 수</t>
   </si>
   <si>
     <t>적수중량 K</t>
+  </si>
+  <si>
+    <t>M/T당</t>
+  </si>
+  <si>
+    <t>요 율</t>
   </si>
   <si>
     <t>금 액</t>
@@ -64,6 +80,13 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>No.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고명</t>
+  </si>
+  <si>
     <t>등급순위</t>
   </si>
   <si>
@@ -87,20 +110,111 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>보관
+기관</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>충주시장         귀하</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>전 일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>적요</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>충주시장        귀하</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>하기와 여히 정부관리양곡을 보관 부대작업하였기 확인하여 주시기 바랍니다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도서
+번  호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업
+월일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>수매
+장소
+입고료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고량</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고량</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>하차량</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상차량</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>수매장소
+상차량</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>수매경비료
+(이송료)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤백
+매입료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>환산중량 K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/T당 요율</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>금   액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비 고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상기 사항 상위없음을 확인함.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>월분양곡입출고보고확인서</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>M/T당
-요율</t>
+    <t>보관창고명</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -109,44 +223,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>보관창고명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>이월량</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔 량</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도서
-번호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>보관
-기간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드번호</t>
-  </si>
-  <si>
-    <t>창고명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>충      주      시      장      조    길    형</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>충주시 분임양곡관리관      이    성    윤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
+    <t>보관책임자</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -154,10 +231,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -261,8 +341,8 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="HY신명조"/>
       <family val="1"/>
       <charset val="129"/>
@@ -295,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -416,6 +496,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -487,66 +582,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1120,7 +1161,7 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,9 +1177,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1175,18 +1231,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,9 +1264,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,87 +1273,126 @@
     <xf numFmtId="40" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1310,8 +1405,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1320,15 +1421,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="distributed" vertical="distributed" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="196">
@@ -1540,6 +1639,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>92001</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1633</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6620" name="그림 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F37092-63C2-4C6F-835A-5F92A54BF3E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$U$5:$W$6" spid="_x0000_s6883"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9265920" y="464820"/>
+              <a:ext cx="2842260" cy="426720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="3204882" cy="414618"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="그림 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548E6225-2389-47EA-8A4C-B283DE06EB98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$U$5:$W$6" spid="_x0000_s18526"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="10201275" y="247650"/>
+              <a:ext cx="3204882" cy="414618"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1862,11 +2098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1876,16 +2112,16 @@
     <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="22" customWidth="1"/>
-    <col min="8" max="8" width="4.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="13" customWidth="1"/>
     <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
     <col min="10" max="13" width="13.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.25" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.75" style="1"/>
     <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
@@ -1893,649 +2129,1376 @@
     <col min="25" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23 16384:16384" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="2:24" s="12" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="16"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:23 16384:16384" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="I2" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="I2" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+    </row>
+    <row r="3" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="16"/>
+      <c r="K5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="20"/>
+      <c r="U5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-    </row>
-    <row r="3" spans="2:24" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="43" t="s">
+    </row>
+    <row r="6" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="16"/>
+      <c r="O6" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="20"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="23"/>
+    </row>
+    <row r="7" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:23 16384:16384" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="43" t="s">
+      <c r="K9" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="44"/>
-    </row>
-    <row r="5" spans="2:24" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
-      <c r="K5" s="10" t="s">
+      <c r="Q9" s="74"/>
+      <c r="R9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="Q10" s="72"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="71"/>
+    </row>
+    <row r="11" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="7"/>
+      <c r="XFD11" s="32"/>
+    </row>
+    <row r="12" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="31"/>
+    </row>
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="31"/>
+    </row>
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+    </row>
+    <row r="29" spans="1:19" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="15"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="2:24" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
-      <c r="O6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="15"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-    </row>
-    <row r="7" spans="2:24" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="46" t="s">
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+    </row>
+    <row r="30" spans="1:19" s="14" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-    </row>
-    <row r="11" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="2:24" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="1:19" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-    </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-    </row>
-    <row r="27" spans="1:19" s="9" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-    </row>
-    <row r="28" spans="1:19" s="9" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-    </row>
-    <row r="29" spans="1:19" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="11"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+    </row>
+    <row r="31" spans="1:19" s="14" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="1:19" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="55">
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="B7:N7"/>
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B28:N28"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="F9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="O9:O10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <pageMargins left="0.17" right="0.15748031496062992" top="0.49" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE109C-D8A8-4F7A-B288-7AFCE49BBC2B}">
+  <dimension ref="A1:W30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="47" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="38" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="47" customWidth="1"/>
+    <col min="12" max="14" width="11.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.75" style="1"/>
+    <col min="21" max="21" width="17" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.5" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="F1" s="16"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="37"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+    </row>
+    <row r="2" spans="2:23" s="17" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="2:23" s="15" customFormat="1" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="2:23" s="15" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="2:23" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="16"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="54"/>
+      <c r="U5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="F6" s="16"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="37"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="54"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="23"/>
+    </row>
+    <row r="7" spans="2:23" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="2:23" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="53"/>
+    </row>
+    <row r="13" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="31"/>
+      <c r="U13" s="34"/>
+    </row>
+    <row r="14" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="31"/>
+      <c r="U23" s="45"/>
+    </row>
+    <row r="24" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="1:21" s="20" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="46"/>
+    </row>
+    <row r="26" spans="1:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+    </row>
+    <row r="28" spans="1:21" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+    </row>
+    <row r="29" spans="1:21" s="14" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="20"/>
+    </row>
+    <row r="30" spans="1:21" s="14" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="L29:O29"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E13 E16:E24" xr:uid="{889666C4-78D7-4965-BD47-4D67F140A468}">
+      <formula1>"10,20,40,800,1000"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25 E14:E15" xr:uid="{63885C28-D622-47E4-A4D2-E032B958D5DD}">
       <formula1>"20,40,800,1000"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.17" right="0.15748031496062992" top="0.49" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/wms/src/main/webapp/resources/billForm/보관임양식.xlsx
+++ b/wms/src/main/webapp/resources/billForm/보관임양식.xlsx
@@ -3,31 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A413F80-1186-47A3-8BE1-CB8EDF6B4A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Apache Software Foundation\Tomcat 9.0\webapps\wms\resources\billForm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20143F8-73BD-484B-AD1A-ABC99DA7463F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4665" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보관비" sheetId="6" r:id="rId1"/>
     <sheet name="부대비" sheetId="17" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">보관비!$A$1:$S$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">보관비!$A$1:$S$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">부대비!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
-  <si>
-    <t>지도서</t>
-  </si>
-  <si>
-    <t>번 호</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>년산</t>
   </si>
@@ -41,9 +39,6 @@
     <t>보관일수</t>
   </si>
   <si>
-    <t>이월량</t>
-  </si>
-  <si>
     <t>입고량</t>
   </si>
   <si>
@@ -60,9 +55,6 @@
   </si>
   <si>
     <t>M/T당</t>
-  </si>
-  <si>
-    <t>요 율</t>
   </si>
   <si>
     <t>금 액</t>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>(인)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>보관
 기관</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -119,19 +107,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>충주시장         귀하</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>전 일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>적요</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>충주시장        귀하</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +204,11 @@
   </si>
   <si>
     <t>보관책임자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도서
+번호</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -375,47 +360,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1161,7 +1111,7 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,256 +1127,241 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1671,7 +1606,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$U$5:$W$6" spid="_x0000_s6883"/>
+                  <a14:cameraTool cellRange="$U$5:$W$6" spid="_x0000_s6928"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1737,7 +1672,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$U$5:$W$6" spid="_x0000_s18526"/>
+                  <a14:cameraTool cellRange="$U$5:$W$6" spid="_x0000_s18572"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2099,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD32"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2112,9 +2047,9 @@
     <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="28" customWidth="1"/>
-    <col min="8" max="8" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="12" customWidth="1"/>
     <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
     <col min="10" max="13" width="13.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
@@ -2125,704 +2060,631 @@
     <col min="19" max="19" width="6.25" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.75" style="1"/>
     <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
-    <col min="22" max="24" width="12.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.75" style="1"/>
+    <col min="22" max="23" width="12.5" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23 16384:16384" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" s="14" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:23 16384:16384" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="15"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="2:23" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="I2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+    </row>
+    <row r="3" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="K5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="I2" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-    </row>
-    <row r="3" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="16"/>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="19"/>
+      <c r="U5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="O6" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="19"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="2:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="2:23" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="75" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="20"/>
-      <c r="U5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="16"/>
-      <c r="O6" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="20"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="23"/>
-    </row>
-    <row r="7" spans="1:23 16384:16384" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="1:23 16384:16384" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>26</v>
       </c>
       <c r="G9" s="76"/>
       <c r="H9" s="77"/>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="70" t="s">
+      <c r="M9" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="O9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="P9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="Q9" s="74"/>
+      <c r="R9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="70" t="s">
+      <c r="S9" s="62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="30"/>
+    </row>
+    <row r="13" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="30"/>
+    </row>
+    <row r="14" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="2:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="30"/>
+    </row>
+    <row r="17" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="30"/>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="71"/>
-    </row>
-    <row r="11" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="7"/>
-      <c r="XFD11" s="32"/>
-    </row>
-    <row r="12" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="31"/>
-    </row>
-    <row r="15" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:23 16384:16384" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="31"/>
-    </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="31"/>
-    </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
       <c r="P25" s="81"/>
       <c r="Q25" s="82"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-    </row>
-    <row r="29" spans="1:19" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" spans="1:19" s="14" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-    </row>
-    <row r="31" spans="1:19" s="14" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-    </row>
-    <row r="32" spans="1:19" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="16"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+    </row>
+    <row r="30" spans="1:19" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" spans="1:19" s="14" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P24:Q24"/>
+  <mergeCells count="43">
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B28:N28"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="M30:P30"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -2831,13 +2693,41 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.17" right="0.15748031496062992" top="0.49" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -2847,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE109C-D8A8-4F7A-B288-7AFCE49BBC2B}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2858,11 +2748,11 @@
     <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="47" customWidth="1"/>
-    <col min="9" max="10" width="11.75" style="38" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="47" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="46" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="37" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="46" customWidth="1"/>
     <col min="12" max="14" width="11.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
@@ -2874,618 +2764,612 @@
     <col min="24" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" s="14" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="37"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-    </row>
-    <row r="2" spans="2:23" s="17" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="15"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="36"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="2:23" s="16" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" s="14" customFormat="1" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:23" s="14" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="23"/>
-    </row>
-    <row r="3" spans="2:23" s="15" customFormat="1" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="2:23" s="15" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="2:23" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="L5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="53"/>
+      <c r="U5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="36"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="53"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="2:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="2:23" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="54"/>
-      <c r="U5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="F6" s="16"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="37"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="54"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="23"/>
-    </row>
-    <row r="7" spans="2:23" s="15" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
+      <c r="K9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="2:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="2:23" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52" t="s">
+      <c r="L9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="M9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="N9" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="O9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="P9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="Q9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="R9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="52" t="s">
+    </row>
+    <row r="10" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="30"/>
+      <c r="U13" s="33"/>
+    </row>
+    <row r="14" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="30"/>
+    </row>
+    <row r="16" spans="2:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="30"/>
+      <c r="U23" s="44"/>
+    </row>
+    <row r="24" spans="1:21" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:21" s="19" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="53"/>
-    </row>
-    <row r="13" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="31"/>
-      <c r="U13" s="34"/>
-    </row>
-    <row r="14" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="31"/>
-    </row>
-    <row r="16" spans="2:23" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="31"/>
-      <c r="U23" s="45"/>
-    </row>
-    <row r="24" spans="1:21" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="1:21" s="20" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="46"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:21" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="1:21" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-    </row>
-    <row r="29" spans="1:21" s="14" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="20"/>
-    </row>
-    <row r="30" spans="1:21" s="14" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" s="20"/>
+    <row r="27" spans="1:21" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" s="13" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="19"/>
+      <c r="R29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" s="13" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="19"/>
+      <c r="R30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="M30:N30"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="L30:O30"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="B27:L27"/>
-    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
@@ -3496,7 +3380,8 @@
       <formula1>"20,40,800,1000"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.17" right="0.15748031496062992" top="0.49" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
